--- a/medicine/Handicap/Repli_autistique/Repli_autistique.xlsx
+++ b/medicine/Handicap/Repli_autistique/Repli_autistique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le repli autistique, souvent désigné par l'anglicisme de shutdown, est une réaction d'interruption des interactions d'une personne autiste, provoquée par une surcharge sensorielle.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le repli autistique est initialement décrit par le psychiatre américain Leo Kanner, comme une attitude innée, en ces termes : « Il existe d’emblée un repli autistique extrême qui, chaque fois que c’est possible, fait négliger, ignorer, refuser par l’enfant tout ce qui lui vient de l’extérieur[1],[2]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le repli autistique est initialement décrit par le psychiatre américain Leo Kanner, comme une attitude innée, en ces termes : « Il existe d’emblée un repli autistique extrême qui, chaque fois que c’est possible, fait négliger, ignorer, refuser par l’enfant tout ce qui lui vient de l’extérieur,. »
 </t>
         </is>
       </c>
@@ -542,13 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2004, H. G. Loos et I. M. Loos Miller décrivent la réaction de shutdown chez un jeune enfant autiste comme « un état involontaire de non-réponse, d'immobilité, de somnolence et de faiblesse au toucher »[3]. Cette réaction est déclenché « par l'attente d'une performance sociale, comme à l'école ou dans les interactions avec les autres, et elle s'intensifie lorsque l'adulte continue à faire pression sur l'enfant pour qu'il réponde à une tâche qu'il perçoit comme difficile »[3].
-En 2003, Olga Bogdashina décrit ce repli autistique comme une réaction à une surcharge sensorielle[4]. Elle la compare à une mise en veille pendant laquelle la personne autiste perd sa capacité à interagir[4].
-D'après Bogdashina, s'il existe différentes manifestations du repli autistique, il est toujours vécu comme une expérience très désagréable[4]. Chez l'enfant ou l'adulte, le repli autistique peut se manifester par une suspension de toute interaction sociale et de toute communication en réaction à un état de stress ou d'anxiété sévère[5].
-Vécu du repli autistique par les personnes autistes
-À partir de ses entretiens avec trente-trois adultes autistes, la chercheuse Kailey Stevens décrit le repli autistique comme une sensation de perte de contrôle doublée d'une incapacité à répondre aux stimulations sensorielles ; un désir de fuite et de solitude et une focalisation sur la survie et les besoins vitaux l'accompagnent souvent[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004, H. G. Loos et I. M. Loos Miller décrivent la réaction de shutdown chez un jeune enfant autiste comme « un état involontaire de non-réponse, d'immobilité, de somnolence et de faiblesse au toucher ». Cette réaction est déclenché « par l'attente d'une performance sociale, comme à l'école ou dans les interactions avec les autres, et elle s'intensifie lorsque l'adulte continue à faire pression sur l'enfant pour qu'il réponde à une tâche qu'il perçoit comme difficile ».
+En 2003, Olga Bogdashina décrit ce repli autistique comme une réaction à une surcharge sensorielle. Elle la compare à une mise en veille pendant laquelle la personne autiste perd sa capacité à interagir.
+D'après Bogdashina, s'il existe différentes manifestations du repli autistique, il est toujours vécu comme une expérience très désagréable. Chez l'enfant ou l'adulte, le repli autistique peut se manifester par une suspension de toute interaction sociale et de toute communication en réaction à un état de stress ou d'anxiété sévère.
 </t>
         </is>
       </c>
@@ -574,13 +588,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vécu du repli autistique par les personnes autistes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de ses entretiens avec trente-trois adultes autistes, la chercheuse Kailey Stevens décrit le repli autistique comme une sensation de perte de contrôle doublée d'une incapacité à répondre aux stimulations sensorielles ; un désir de fuite et de solitude et une focalisation sur la survie et les besoins vitaux l'accompagnent souvent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Repli_autistique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Repli_autistique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le retrait ou le repli relationnel chez de tout petits enfants est l'un des signes précurseurs permettant de diagnostiquer l'autisme[7].
-Des enfants autistes en repli ont cependant été soupçonnés à tort d'être sourds[4],[7]. Leur audition fonctionne normalement, mais, pendant un repli, ces personnes se coupent des stimulations auditives[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le retrait ou le repli relationnel chez de tout petits enfants est l'un des signes précurseurs permettant de diagnostiquer l'autisme.
+Des enfants autistes en repli ont cependant été soupçonnés à tort d'être sourds,. Leur audition fonctionne normalement, mais, pendant un repli, ces personnes se coupent des stimulations auditives.
 </t>
         </is>
       </c>
